--- a/Maps/4Fmap.xlsx
+++ b/Maps/4Fmap.xlsx
@@ -2310,7 +2310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
